--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0568750296379153</v>
+        <v>0.0551760287523508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0337383182317398</v>
+        <v>0.0387832854256928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0800117410440909</v>
+        <v>0.0715687720790089</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0259093193968748</v>
+        <v>0.0108582860205003</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0696065068432939</v>
+        <v>-0.0568124097625999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.121425145637044</v>
+        <v>0.0785289818036005</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,13 +453,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0791986593621119</v>
+        <v>0.0715706751220073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.010741263803762</v>
+        <v>0.0230765633771198</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147656054920462</v>
+        <v>0.120064786866895</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -470,13 +470,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144632148416674</v>
+        <v>0.153097602792613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0828133889506991</v>
+        <v>0.10963858066453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206450907882649</v>
+        <v>0.196556624920697</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,13 +487,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00536648750142922</v>
+        <v>-0.0270059634657182</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0570541514257078</v>
+        <v>-0.0714083014283812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0677871264285663</v>
+        <v>0.0173963744969448</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0247424365880563</v>
+        <v>0.0155852430597841</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0500243068599099</v>
+        <v>-0.0362549632045367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0995091800360225</v>
+        <v>0.0674254493241049</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0131717190513001</v>
+        <v>0.0170461885872912</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.084280444341169</v>
+        <v>-0.0491286160187943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110623882443769</v>
+        <v>0.0832209931933768</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0985362511528047</v>
+        <v>0.0932575541181435</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00579619955488625</v>
+        <v>0.0190031014247081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202868701860496</v>
+        <v>0.167512006811579</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0254447041258118</v>
+        <v>0.0167733296918075</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0465797748777075</v>
+        <v>-0.034726311848431</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0974691831293311</v>
+        <v>0.0682729712320461</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0199630506424779</v>
+        <v>0.0367211905284766</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.034578116833277</v>
+        <v>-0.00153287386231163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0745042181182329</v>
+        <v>0.0749752549192648</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.156379218254086</v>
+        <v>0.153845323966906</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0954012639941904</v>
+        <v>0.110252237088291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217357172513981</v>
+        <v>0.197438410845521</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0553770663477859</v>
+        <v>-0.0230899943190153</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.12103953714981</v>
+        <v>-0.0700968630045557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0102854044542385</v>
+        <v>0.0239168743665251</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0551760287523508</v>
+        <v>0.0551760287523504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0387832854256928</v>
+        <v>0.0387832854256925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0715687720790089</v>
+        <v>0.0715687720790084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0108582860205003</v>
+        <v>0.0108582860205004</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0568124097625999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0785289818036005</v>
+        <v>0.0785289818036006</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -473,10 +473,10 @@
         <v>0.153097602792613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10963858066453</v>
+        <v>0.109638580664529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196556624920697</v>
+        <v>0.196556624920696</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,13 +487,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0270059634657182</v>
+        <v>-0.027005963465718</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0714083014283812</v>
+        <v>-0.071408301428381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0173963744969448</v>
+        <v>0.017396374496945</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0155852430597841</v>
+        <v>0.0155852430597842</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0362549632045367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0674254493241049</v>
+        <v>0.0674254493241051</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -527,7 +527,7 @@
         <v>-0.0491286160187943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0832209931933768</v>
+        <v>0.0832209931933767</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0932575541181435</v>
+        <v>0.0932575541181439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0190031014247081</v>
+        <v>0.0190031014247083</v>
       </c>
       <c r="D9" t="n">
         <v>0.167512006811579</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0167733296918075</v>
+        <v>0.0167733296918078</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.034726311848431</v>
+        <v>-0.0347263118484309</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0682729712320461</v>
+        <v>0.0682729712320465</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0367211905284766</v>
+        <v>0.0367211905284763</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00153287386231163</v>
+        <v>-0.00153287386231186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0749752549192648</v>
+        <v>0.0749752549192645</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.153845323966906</v>
+        <v>0.153845323966908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110252237088291</v>
+        <v>0.110252237088293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197438410845521</v>
+        <v>0.197438410845523</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0230899943190153</v>
+        <v>-0.0230899943190151</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0700968630045557</v>
+        <v>-0.0700968630045555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0239168743665251</v>
+        <v>0.0239168743665252</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
@@ -12,60 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI_low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI_high</t>
-  </si>
-  <si>
     <t xml:space="preserve">along</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
   </si>
 </sst>
 </file>
@@ -404,219 +356,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0551760287523504</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0387832854256925</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0715687720790084</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0108582860205004</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0568124097625999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0785289818036006</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0715706751220073</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0230765633771198</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.120064786866895</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.153097602792613</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.109638580664529</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.196556624920696</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.027005963465718</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.071408301428381</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.017396374496945</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0155852430597842</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.0362549632045367</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0674254493241051</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0170461885872912</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.0491286160187943</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0832209931933767</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0932575541181439</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0190031014247083</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.167512006811579</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0167733296918078</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.0347263118484309</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0682729712320465</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0367211905284763</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.00153287386231186</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0749752549192645</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.153845323966908</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.110252237088293</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.197438410845523</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.0230899943190151</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.0700968630045555</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0239168743665252</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_pol.xlsx
@@ -12,12 +12,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_high</t>
+  </si>
+  <si>
     <t xml:space="preserve">along</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
   </si>
 </sst>
 </file>
@@ -356,6 +404,219 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0551760287523522</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.038783285425694</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0715687720790105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0108582860205003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0568124097625999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0785289818036005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0711646122967617</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0226822595804743</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.119646965013049</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.153097602792613</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.109638580664529</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.196556624920696</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.027005963465718</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.071408301428381</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0173963744969449</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0155852430597841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.0362549632045367</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0674254493241049</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0170461885872913</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.0491286160187945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0832209931933772</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0932575541181441</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0190031014247086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.16751200681158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0167733296918077</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.034726311848431</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0682729712320465</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0367211905284764</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.00153287386231171</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0749752549192644</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.153845323966908</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.110252237088293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.197438410845523</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.0230899943190153</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.0700968630045556</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0239168743665249</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
